--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slitrk2-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slitrk2-Ptprs.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.066415</v>
+        <v>0.1390903333333333</v>
       </c>
       <c r="H2">
-        <v>0.199245</v>
+        <v>0.4172709999999999</v>
       </c>
       <c r="I2">
-        <v>0.1090265287216189</v>
+        <v>0.2062392066578425</v>
       </c>
       <c r="J2">
-        <v>0.1090265287216189</v>
+        <v>0.2062392066578425</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.260928666666667</v>
+        <v>4.925988333333333</v>
       </c>
       <c r="N2">
-        <v>12.782786</v>
+        <v>14.777965</v>
       </c>
       <c r="O2">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582037</v>
       </c>
       <c r="P2">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582035</v>
       </c>
       <c r="Q2">
-        <v>0.2829895773966667</v>
+        <v>0.6851573592794443</v>
       </c>
       <c r="R2">
-        <v>2.54690619657</v>
+        <v>6.166416233514998</v>
       </c>
       <c r="S2">
-        <v>0.006381370348769622</v>
+        <v>0.01166692886841602</v>
       </c>
       <c r="T2">
-        <v>0.006381370348769621</v>
+        <v>0.01166692886841601</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.066415</v>
+        <v>0.1390903333333333</v>
       </c>
       <c r="H3">
-        <v>0.199245</v>
+        <v>0.4172709999999999</v>
       </c>
       <c r="I3">
-        <v>0.1090265287216189</v>
+        <v>0.2062392066578425</v>
       </c>
       <c r="J3">
-        <v>0.1090265287216189</v>
+        <v>0.2062392066578425</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>142.755867</v>
       </c>
       <c r="O3">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="P3">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="Q3">
-        <v>3.160376968935</v>
+        <v>6.618653708772999</v>
       </c>
       <c r="R3">
-        <v>28.443392720415</v>
+        <v>59.56788337895699</v>
       </c>
       <c r="S3">
-        <v>0.0712660023242742</v>
+        <v>0.1127031053218801</v>
       </c>
       <c r="T3">
-        <v>0.07126600232427419</v>
+        <v>0.1127031053218801</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.066415</v>
+        <v>0.1390903333333333</v>
       </c>
       <c r="H4">
-        <v>0.199245</v>
+        <v>0.4172709999999999</v>
       </c>
       <c r="I4">
-        <v>0.1090265287216189</v>
+        <v>0.2062392066578425</v>
       </c>
       <c r="J4">
-        <v>0.1090265287216189</v>
+        <v>0.2062392066578425</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.555122999999999</v>
+        <v>13.80191933333334</v>
       </c>
       <c r="N4">
-        <v>16.665369</v>
+        <v>41.40575800000001</v>
       </c>
       <c r="O4">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996995</v>
       </c>
       <c r="P4">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996994</v>
       </c>
       <c r="Q4">
-        <v>0.3689434940449999</v>
+        <v>1.919713560713111</v>
       </c>
       <c r="R4">
-        <v>3.320491446405</v>
+        <v>17.277422046418</v>
       </c>
       <c r="S4">
-        <v>0.008319617616058381</v>
+        <v>0.03268907683357267</v>
       </c>
       <c r="T4">
-        <v>0.008319617616058378</v>
+        <v>0.03268907683357265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.066415</v>
+        <v>0.1390903333333333</v>
       </c>
       <c r="H5">
-        <v>0.199245</v>
+        <v>0.4172709999999999</v>
       </c>
       <c r="I5">
-        <v>0.1090265287216189</v>
+        <v>0.2062392066578425</v>
       </c>
       <c r="J5">
-        <v>0.1090265287216189</v>
+        <v>0.2062392066578425</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.724970666666667</v>
+        <v>12.18796133333333</v>
       </c>
       <c r="N5">
-        <v>23.174912</v>
+        <v>36.563884</v>
       </c>
       <c r="O5">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381804</v>
       </c>
       <c r="P5">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381803</v>
       </c>
       <c r="Q5">
-        <v>0.5130539268266667</v>
+        <v>1.695227604507111</v>
       </c>
       <c r="R5">
-        <v>4.61748534144</v>
+        <v>15.257048440564</v>
       </c>
       <c r="S5">
-        <v>0.01156928515209011</v>
+        <v>0.02886650724785277</v>
       </c>
       <c r="T5">
-        <v>0.0115692851520901</v>
+        <v>0.02886650724785277</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.066415</v>
+        <v>0.1390903333333333</v>
       </c>
       <c r="H6">
-        <v>0.199245</v>
+        <v>0.4172709999999999</v>
       </c>
       <c r="I6">
-        <v>0.1090265287216189</v>
+        <v>0.2062392066578425</v>
       </c>
       <c r="J6">
-        <v>0.1090265287216189</v>
+        <v>0.2062392066578425</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.6722</v>
+        <v>8.576764333333333</v>
       </c>
       <c r="N6">
-        <v>23.0166</v>
+        <v>25.730293</v>
       </c>
       <c r="O6">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001386</v>
       </c>
       <c r="P6">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001385</v>
       </c>
       <c r="Q6">
-        <v>0.509549163</v>
+        <v>1.192945010044778</v>
       </c>
       <c r="R6">
-        <v>4.585942467000001</v>
+        <v>10.736505090403</v>
       </c>
       <c r="S6">
-        <v>0.01149025328042657</v>
+        <v>0.020313588386121</v>
       </c>
       <c r="T6">
-        <v>0.01149025328042657</v>
+        <v>0.02031358838612099</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5183446666666666</v>
+        <v>0.5183446666666667</v>
       </c>
       <c r="H7">
         <v>1.555034</v>
       </c>
       <c r="I7">
-        <v>0.8509119880754543</v>
+        <v>0.7685867900859908</v>
       </c>
       <c r="J7">
-        <v>0.8509119880754542</v>
+        <v>0.7685867900859908</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.260928666666667</v>
+        <v>4.925988333333333</v>
       </c>
       <c r="N7">
-        <v>12.782786</v>
+        <v>14.777965</v>
       </c>
       <c r="O7">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582037</v>
       </c>
       <c r="P7">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582035</v>
       </c>
       <c r="Q7">
-        <v>2.208629649413777</v>
+        <v>2.553359780645555</v>
       </c>
       <c r="R7">
-        <v>19.877666844724</v>
+        <v>22.98023802581</v>
       </c>
       <c r="S7">
-        <v>0.04980425033967537</v>
+        <v>0.04347886880700656</v>
       </c>
       <c r="T7">
-        <v>0.04980425033967537</v>
+        <v>0.04347886880700656</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5183446666666666</v>
+        <v>0.5183446666666667</v>
       </c>
       <c r="H8">
         <v>1.555034</v>
       </c>
       <c r="I8">
-        <v>0.8509119880754543</v>
+        <v>0.7685867900859908</v>
       </c>
       <c r="J8">
-        <v>0.8509119880754542</v>
+        <v>0.7685867900859908</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>142.755867</v>
       </c>
       <c r="O8">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="P8">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="Q8">
-        <v>24.66558076494199</v>
+        <v>24.665580764942</v>
       </c>
       <c r="R8">
         <v>221.990226884478</v>
       </c>
       <c r="S8">
-        <v>0.5562049570043183</v>
+        <v>0.4200080060227154</v>
       </c>
       <c r="T8">
-        <v>0.5562049570043182</v>
+        <v>0.4200080060227154</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5183446666666666</v>
+        <v>0.5183446666666667</v>
       </c>
       <c r="H9">
         <v>1.555034</v>
       </c>
       <c r="I9">
-        <v>0.8509119880754543</v>
+        <v>0.7685867900859908</v>
       </c>
       <c r="J9">
-        <v>0.8509119880754542</v>
+        <v>0.7685867900859908</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.555122999999999</v>
+        <v>13.80191933333334</v>
       </c>
       <c r="N9">
-        <v>16.665369</v>
+        <v>41.40575800000001</v>
       </c>
       <c r="O9">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996995</v>
       </c>
       <c r="P9">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996994</v>
       </c>
       <c r="Q9">
-        <v>2.879468379727332</v>
+        <v>7.15415127619689</v>
       </c>
       <c r="R9">
-        <v>25.91521541754599</v>
+        <v>64.387361485772</v>
       </c>
       <c r="S9">
-        <v>0.06493155793103829</v>
+        <v>0.1218216121053652</v>
       </c>
       <c r="T9">
-        <v>0.06493155793103829</v>
+        <v>0.1218216121053652</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5183446666666666</v>
+        <v>0.5183446666666667</v>
       </c>
       <c r="H10">
         <v>1.555034</v>
       </c>
       <c r="I10">
-        <v>0.8509119880754543</v>
+        <v>0.7685867900859908</v>
       </c>
       <c r="J10">
-        <v>0.8509119880754542</v>
+        <v>0.7685867900859908</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.724970666666667</v>
+        <v>12.18796133333333</v>
       </c>
       <c r="N10">
-        <v>23.174912</v>
+        <v>36.563884</v>
       </c>
       <c r="O10">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381804</v>
       </c>
       <c r="P10">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381803</v>
       </c>
       <c r="Q10">
-        <v>4.00419734522311</v>
+        <v>6.317564754672889</v>
       </c>
       <c r="R10">
-        <v>36.03777610700799</v>
+        <v>56.858082792056</v>
       </c>
       <c r="S10">
-        <v>0.09029401875678329</v>
+        <v>0.1075761321339309</v>
       </c>
       <c r="T10">
-        <v>0.09029401875678328</v>
+        <v>0.1075761321339309</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5183446666666666</v>
+        <v>0.5183446666666667</v>
       </c>
       <c r="H11">
         <v>1.555034</v>
       </c>
       <c r="I11">
-        <v>0.8509119880754543</v>
+        <v>0.7685867900859908</v>
       </c>
       <c r="J11">
-        <v>0.8509119880754542</v>
+        <v>0.7685867900859908</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.6722</v>
+        <v>8.576764333333333</v>
       </c>
       <c r="N11">
-        <v>23.0166</v>
+        <v>25.730293</v>
       </c>
       <c r="O11">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001386</v>
       </c>
       <c r="P11">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001385</v>
       </c>
       <c r="Q11">
-        <v>3.976843951599999</v>
+        <v>4.445720049440222</v>
       </c>
       <c r="R11">
-        <v>35.7915955644</v>
+        <v>40.011480444962</v>
       </c>
       <c r="S11">
-        <v>0.08967720404363901</v>
+        <v>0.07570217101697287</v>
       </c>
       <c r="T11">
-        <v>0.08967720404363901</v>
+        <v>0.07570217101697285</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.024404</v>
+        <v>0.01697766666666667</v>
       </c>
       <c r="H12">
-        <v>0.073212</v>
+        <v>0.050933</v>
       </c>
       <c r="I12">
-        <v>0.04006148320292686</v>
+        <v>0.0251740032561666</v>
       </c>
       <c r="J12">
-        <v>0.04006148320292686</v>
+        <v>0.0251740032561666</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.260928666666667</v>
+        <v>4.925988333333333</v>
       </c>
       <c r="N12">
-        <v>12.782786</v>
+        <v>14.777965</v>
       </c>
       <c r="O12">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582037</v>
       </c>
       <c r="P12">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582035</v>
       </c>
       <c r="Q12">
-        <v>0.1039837031813333</v>
+        <v>0.0836317879272222</v>
       </c>
       <c r="R12">
-        <v>0.935853328632</v>
+        <v>0.7526860913449999</v>
       </c>
       <c r="S12">
-        <v>0.002344816110688457</v>
+        <v>0.001424090550397783</v>
       </c>
       <c r="T12">
-        <v>0.002344816110688457</v>
+        <v>0.001424090550397782</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.024404</v>
+        <v>0.01697766666666667</v>
       </c>
       <c r="H13">
-        <v>0.073212</v>
+        <v>0.050933</v>
       </c>
       <c r="I13">
-        <v>0.04006148320292686</v>
+        <v>0.0251740032561666</v>
       </c>
       <c r="J13">
-        <v>0.04006148320292686</v>
+        <v>0.0251740032561666</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>142.755867</v>
       </c>
       <c r="O13">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="P13">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="Q13">
-        <v>1.161271392756</v>
+        <v>0.8078871748789999</v>
       </c>
       <c r="R13">
-        <v>10.451442534804</v>
+        <v>7.270984573911</v>
       </c>
       <c r="S13">
-        <v>0.0261864867984881</v>
+        <v>0.01375678459169058</v>
       </c>
       <c r="T13">
-        <v>0.0261864867984881</v>
+        <v>0.01375678459169058</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.024404</v>
+        <v>0.01697766666666667</v>
       </c>
       <c r="H14">
-        <v>0.073212</v>
+        <v>0.050933</v>
       </c>
       <c r="I14">
-        <v>0.04006148320292686</v>
+        <v>0.0251740032561666</v>
       </c>
       <c r="J14">
-        <v>0.04006148320292686</v>
+        <v>0.0251740032561666</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.555122999999999</v>
+        <v>13.80191933333334</v>
       </c>
       <c r="N14">
-        <v>16.665369</v>
+        <v>41.40575800000001</v>
       </c>
       <c r="O14">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996995</v>
       </c>
       <c r="P14">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996994</v>
       </c>
       <c r="Q14">
-        <v>0.135567221692</v>
+        <v>0.2343243858015556</v>
       </c>
       <c r="R14">
-        <v>1.220104995228</v>
+        <v>2.108919472214</v>
       </c>
       <c r="S14">
-        <v>0.003057019473045076</v>
+        <v>0.003990099360761607</v>
       </c>
       <c r="T14">
-        <v>0.003057019473045076</v>
+        <v>0.003990099360761606</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.024404</v>
+        <v>0.01697766666666667</v>
       </c>
       <c r="H15">
-        <v>0.073212</v>
+        <v>0.050933</v>
       </c>
       <c r="I15">
-        <v>0.04006148320292686</v>
+        <v>0.0251740032561666</v>
       </c>
       <c r="J15">
-        <v>0.04006148320292686</v>
+        <v>0.0251740032561666</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.724970666666667</v>
+        <v>12.18796133333333</v>
       </c>
       <c r="N15">
-        <v>23.174912</v>
+        <v>36.563884</v>
       </c>
       <c r="O15">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381804</v>
       </c>
       <c r="P15">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381803</v>
       </c>
       <c r="Q15">
-        <v>0.1885201841493333</v>
+        <v>0.2069231448635555</v>
       </c>
       <c r="R15">
-        <v>1.696681657344</v>
+        <v>1.862308303772</v>
       </c>
       <c r="S15">
-        <v>0.004251100426885598</v>
+        <v>0.003523508256396647</v>
       </c>
       <c r="T15">
-        <v>0.004251100426885598</v>
+        <v>0.003523508256396646</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.024404</v>
+        <v>0.01697766666666667</v>
       </c>
       <c r="H16">
-        <v>0.073212</v>
+        <v>0.050933</v>
       </c>
       <c r="I16">
-        <v>0.04006148320292686</v>
+        <v>0.0251740032561666</v>
       </c>
       <c r="J16">
-        <v>0.04006148320292686</v>
+        <v>0.0251740032561666</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.6722</v>
+        <v>8.576764333333333</v>
       </c>
       <c r="N16">
-        <v>23.0166</v>
+        <v>25.730293</v>
       </c>
       <c r="O16">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001386</v>
       </c>
       <c r="P16">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001385</v>
       </c>
       <c r="Q16">
-        <v>0.1872323688</v>
+        <v>0.1456134459298889</v>
       </c>
       <c r="R16">
-        <v>1.6850913192</v>
+        <v>1.310521013369</v>
       </c>
       <c r="S16">
-        <v>0.004222060393819621</v>
+        <v>0.002479520496919989</v>
       </c>
       <c r="T16">
-        <v>0.004222060393819621</v>
+        <v>0.002479520496919989</v>
       </c>
     </row>
   </sheetData>
